--- a/25종목 수익률 결과 저장/20170531 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170531 25종목.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\KSIF\GIT\25종목 수익률 결과 저장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\python\25종목 수익률 결과 저장\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
   <si>
     <t xml:space="preserve">     Refresh     </t>
   </si>
@@ -542,10 +542,6 @@
     <t>Local</t>
   </si>
   <si>
-    <t>Last Update : 2017-07-28 12:53:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Peer Analysis (To Select)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,14 +550,458 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼영전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A037350</t>
+  </si>
+  <si>
+    <t>A005620</t>
+  </si>
+  <si>
+    <t>A006200</t>
+  </si>
+  <si>
+    <t>A065710</t>
+  </si>
+  <si>
+    <t>A067010</t>
+  </si>
+  <si>
+    <t>A019010</t>
+  </si>
+  <si>
+    <t>A036010</t>
+  </si>
+  <si>
+    <t>A115310</t>
+  </si>
+  <si>
+    <t>A075130</t>
+  </si>
+  <si>
+    <t>A028080</t>
+  </si>
+  <si>
+    <t>A101930</t>
+  </si>
+  <si>
+    <t>평균누적수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W100</t>
+  </si>
+  <si>
+    <t>S100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:04:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼영전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:04:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Last Update : 2017-09-01 14:07:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성합동지주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전자홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서호전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이씨에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비코전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인포바인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랜티넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화정공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:07:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Base Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,423 +1010,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정주가</t>
+    <t>종가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A037350</t>
-  </si>
-  <si>
-    <t>A005620</t>
-  </si>
-  <si>
-    <t>A006200</t>
-  </si>
-  <si>
-    <t>A065710</t>
-  </si>
-  <si>
-    <t>A067010</t>
-  </si>
-  <si>
-    <t>A019010</t>
-  </si>
-  <si>
-    <t>A036010</t>
-  </si>
-  <si>
-    <t>A115310</t>
-  </si>
-  <si>
-    <t>A075130</t>
-  </si>
-  <si>
-    <t>A028080</t>
-  </si>
-  <si>
-    <t>A101930</t>
-  </si>
-  <si>
-    <t>평균누적수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W100</t>
-  </si>
-  <si>
-    <t>S100100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이씨에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랜티넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성도이엔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전자홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드백화점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인화정공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-08-04 07:59:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-08-14 13:35:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-08-14 13:36:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대성합동지주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서호전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아비코전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인포바인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스홀딩스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="13">
         <f>AVERAGE(F14:F38)</f>
-        <v>-2.5785171376384843E-2</v>
+        <v>1.7931402251477067E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1504,7 +1532,7 @@
       </c>
       <c r="G4">
         <f>COUNTIF(F14:F38,"&gt;=0")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1516,7 +1544,7 @@
       </c>
       <c r="G5">
         <f>COUNTIF(F14:F38,"&lt;0")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1528,7 +1556,7 @@
       </c>
       <c r="G6" s="13">
         <f>MAX(F14:F38)</f>
-        <v>0.16666666666666674</v>
+        <v>0.41964285714285721</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1540,13 +1568,13 @@
       </c>
       <c r="G7" s="13">
         <f>MIN(F14:F38)</f>
-        <v>-0.20714285714285718</v>
+        <v>-0.1640625</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -1561,7 +1589,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1574,7 +1602,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -1589,7 +1617,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1597,19 +1625,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1617,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -1626,11 +1654,11 @@
         <v>6790</v>
       </c>
       <c r="E14" s="12">
-        <v>6290</v>
+        <v>6140</v>
       </c>
       <c r="F14" s="13">
         <f>E14/D14-1</f>
-        <v>-7.3637702503681846E-2</v>
+        <v>-9.5729013254786444E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1638,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -1647,11 +1675,11 @@
         <v>24800</v>
       </c>
       <c r="E15" s="12">
-        <v>25100</v>
+        <v>23600</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" ref="F15:F38" si="0">E15/D15-1</f>
-        <v>1.2096774193548487E-2</v>
+        <v>-4.8387096774193505E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1659,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -1668,11 +1696,11 @@
         <v>53200</v>
       </c>
       <c r="E16" s="12">
-        <v>57800</v>
+        <v>60500</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>8.6466165413533913E-2</v>
+        <v>0.13721804511278202</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1680,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -1689,11 +1717,11 @@
         <v>27400</v>
       </c>
       <c r="E17" s="12">
-        <v>29850</v>
+        <v>30550</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>8.9416058394160558E-2</v>
+        <v>0.11496350364963503</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1701,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -1710,11 +1738,11 @@
         <v>16600</v>
       </c>
       <c r="E18" s="12">
-        <v>14150</v>
+        <v>14200</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>-0.14759036144578308</v>
+        <v>-0.14457831325301207</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1722,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -1731,11 +1759,11 @@
         <v>12900</v>
       </c>
       <c r="E19" s="12">
-        <v>15050</v>
+        <v>14950</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>0.1589147286821706</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1743,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -1752,11 +1780,11 @@
         <v>7750</v>
       </c>
       <c r="E20" s="12">
-        <v>7740</v>
+        <v>7850</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>-1.290322580645209E-3</v>
+        <v>1.2903225806451646E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1764,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -1773,11 +1801,11 @@
         <v>21450</v>
       </c>
       <c r="E21" s="12">
-        <v>19750</v>
+        <v>19700</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>-7.9254079254079235E-2</v>
+        <v>-8.1585081585081598E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1785,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -1794,11 +1822,11 @@
         <v>12100</v>
       </c>
       <c r="E22" s="12">
-        <v>11900</v>
+        <v>11950</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
-        <v>-1.6528925619834656E-2</v>
+        <v>-1.2396694214875992E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1806,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -1815,11 +1843,11 @@
         <v>7530</v>
       </c>
       <c r="E23" s="12">
-        <v>7290</v>
+        <v>7460</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>-3.1872509960159334E-2</v>
+        <v>-9.2961487383798058E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1827,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -1836,11 +1864,11 @@
         <v>13300</v>
       </c>
       <c r="E24" s="12">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
-        <v>4.5112781954887327E-2</v>
+        <v>9.0225563909774431E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1848,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -1857,11 +1885,11 @@
         <v>5670</v>
       </c>
       <c r="E25" s="12">
-        <v>5390</v>
+        <v>5410</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
-        <v>-4.9382716049382713E-2</v>
+        <v>-4.585537918871252E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1869,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -1878,11 +1906,11 @@
         <v>12200</v>
       </c>
       <c r="E26" s="12">
-        <v>12250</v>
+        <v>13200</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>4.098360655737654E-3</v>
+        <v>8.1967213114754189E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1890,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -1899,11 +1927,11 @@
         <v>58200</v>
       </c>
       <c r="E27" s="12">
-        <v>50800</v>
+        <v>49200</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>-0.12714776632302405</v>
+        <v>-0.15463917525773196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1911,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -1920,11 +1948,11 @@
         <v>9400</v>
       </c>
       <c r="E28" s="12">
-        <v>9140</v>
+        <v>9060</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>-2.7659574468085091E-2</v>
+        <v>-3.6170212765957444E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1932,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -1941,11 +1969,11 @@
         <v>6470</v>
       </c>
       <c r="E29" s="12">
-        <v>6400</v>
+        <v>6720</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
-        <v>-1.0819165378670781E-2</v>
+        <v>3.863987635239563E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1953,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -1962,11 +1990,11 @@
         <v>11500</v>
       </c>
       <c r="E30" s="12">
-        <v>12050</v>
+        <v>11500</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
-        <v>4.7826086956521685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1974,7 +2002,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -1982,12 +2010,12 @@
       <c r="D31" s="12">
         <v>1120</v>
       </c>
-      <c r="E31" s="11">
-        <v>888</v>
+      <c r="E31" s="12">
+        <v>1590</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="0"/>
-        <v>-0.20714285714285718</v>
+        <v>0.41964285714285721</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1995,7 +2023,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2004,11 +2032,11 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>10400</v>
+        <v>12050</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>7.2164948453608213E-2</v>
+        <v>0.24226804123711343</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -2016,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2025,11 +2053,11 @@
         <v>8840</v>
       </c>
       <c r="E33" s="12">
-        <v>7470</v>
+        <v>7770</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.15497737556561086</v>
+        <v>-0.12104072398190047</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -2037,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2046,11 +2074,11 @@
         <v>14100</v>
       </c>
       <c r="E34" s="12">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>-7.8014184397163122E-2</v>
+        <v>-7.0921985815602939E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2058,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2067,11 +2095,11 @@
         <v>11400</v>
       </c>
       <c r="E35" s="12">
-        <v>11000</v>
+        <v>10550</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>-3.5087719298245612E-2</v>
+        <v>-7.456140350877194E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -2079,7 +2107,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2088,11 +2116,11 @@
         <v>12800</v>
       </c>
       <c r="E36" s="12">
-        <v>10250</v>
+        <v>10700</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
-        <v>-0.19921875</v>
+        <v>-0.1640625</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -2100,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2109,11 +2137,11 @@
         <v>6604</v>
       </c>
       <c r="E37" s="12">
-        <v>7580</v>
+        <v>7960</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
-        <v>0.14778921865536043</v>
+        <v>0.20533010296789822</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2121,7 +2149,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2130,11 +2158,11 @@
         <v>13700</v>
       </c>
       <c r="E38" s="12">
-        <v>12650</v>
+        <v>12900</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="0"/>
-        <v>-7.664233576642332E-2</v>
+        <v>-5.8394160583941646E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2151,11 +2179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14:B38"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2169,12 +2197,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2206,7 +2234,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2227,7 +2255,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -2246,7 +2274,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -2267,7 +2295,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2277,25 +2305,25 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2303,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -2312,13 +2340,13 @@
         <v>6790</v>
       </c>
       <c r="E14" s="12">
-        <v>6720</v>
+        <v>6140</v>
       </c>
       <c r="F14" s="12">
         <v>135935800000</v>
       </c>
       <c r="G14" s="12">
-        <v>134534400000</v>
+        <v>122922800000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2326,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -2335,13 +2363,13 @@
         <v>24800</v>
       </c>
       <c r="E15" s="12">
-        <v>25800</v>
+        <v>23600</v>
       </c>
       <c r="F15" s="12">
         <v>103176605600</v>
       </c>
       <c r="G15" s="12">
-        <v>107336952600</v>
+        <v>98184189200</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2349,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -2358,13 +2386,13 @@
         <v>53200</v>
       </c>
       <c r="E16" s="12">
-        <v>58800</v>
+        <v>60500</v>
       </c>
       <c r="F16" s="12">
         <v>117040000000</v>
       </c>
       <c r="G16" s="12">
-        <v>129360000000</v>
+        <v>133100000000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -2372,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -2381,13 +2409,13 @@
         <v>27400</v>
       </c>
       <c r="E17" s="12">
-        <v>31450</v>
+        <v>30550</v>
       </c>
       <c r="F17" s="12">
         <v>286187558000</v>
       </c>
       <c r="G17" s="12">
-        <v>328829249000</v>
+        <v>320121368600</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -2395,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -2404,13 +2432,13 @@
         <v>16600</v>
       </c>
       <c r="E18" s="12">
-        <v>15400</v>
+        <v>14200</v>
       </c>
       <c r="F18" s="12">
         <v>206683280000</v>
       </c>
       <c r="G18" s="12">
-        <v>191742320000</v>
+        <v>176801360000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -2418,7 +2446,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -2427,13 +2455,13 @@
         <v>12900</v>
       </c>
       <c r="E19" s="12">
-        <v>15700</v>
+        <v>14950</v>
       </c>
       <c r="F19" s="12">
         <v>7223726713500</v>
       </c>
       <c r="G19" s="12">
-        <v>8791667395500</v>
+        <v>8371683284250</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -2441,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -2450,13 +2478,13 @@
         <v>7750</v>
       </c>
       <c r="E20" s="12">
-        <v>8050</v>
+        <v>7850</v>
       </c>
       <c r="F20" s="12">
         <v>116891700000</v>
       </c>
       <c r="G20" s="12">
-        <v>121416540000</v>
+        <v>118399980000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -2464,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -2473,13 +2501,13 @@
         <v>21450</v>
       </c>
       <c r="E21" s="12">
-        <v>22600</v>
+        <v>19700</v>
       </c>
       <c r="F21" s="12">
         <v>962388934650</v>
       </c>
       <c r="G21" s="12">
-        <v>1013985544200</v>
+        <v>883872354900</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -2487,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -2496,13 +2524,13 @@
         <v>12100</v>
       </c>
       <c r="E22" s="12">
-        <v>12100</v>
+        <v>11950</v>
       </c>
       <c r="F22" s="12">
         <v>117402742600</v>
       </c>
       <c r="G22" s="12">
-        <v>117402742600</v>
+        <v>115947336700</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -2510,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -2519,13 +2547,13 @@
         <v>7530</v>
       </c>
       <c r="E23" s="12">
-        <v>7510</v>
+        <v>7460</v>
       </c>
       <c r="F23" s="12">
         <v>223727000130</v>
       </c>
       <c r="G23" s="12">
-        <v>223132771710</v>
+        <v>221647200660</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -2533,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -2542,13 +2570,13 @@
         <v>13300</v>
       </c>
       <c r="E24" s="12">
-        <v>13450</v>
+        <v>14500</v>
       </c>
       <c r="F24" s="12">
         <v>160179880000</v>
       </c>
       <c r="G24" s="12">
-        <v>161986420000</v>
+        <v>174632200000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -2556,7 +2584,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -2565,13 +2593,13 @@
         <v>5670</v>
       </c>
       <c r="E25" s="12">
-        <v>5850</v>
+        <v>5410</v>
       </c>
       <c r="F25" s="12">
         <v>242884758060</v>
       </c>
       <c r="G25" s="12">
-        <v>250595385300</v>
+        <v>231747185380</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -2579,7 +2607,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -2588,13 +2616,13 @@
         <v>12200</v>
       </c>
       <c r="E26" s="12">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="F26" s="12">
         <v>137923818200</v>
       </c>
       <c r="G26" s="12">
-        <v>149223503000</v>
+        <v>151519249200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -2602,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -2611,13 +2639,13 @@
         <v>58200</v>
       </c>
       <c r="E27" s="12">
-        <v>51300</v>
+        <v>49200</v>
       </c>
       <c r="F27" s="12">
         <v>365229153000</v>
       </c>
       <c r="G27" s="12">
-        <v>321928789500</v>
+        <v>308750418000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2625,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -2634,13 +2662,13 @@
         <v>9400</v>
       </c>
       <c r="E28" s="12">
-        <v>9460</v>
+        <v>9060</v>
       </c>
       <c r="F28" s="12">
         <v>114574062000</v>
       </c>
       <c r="G28" s="12">
-        <v>115305385800</v>
+        <v>110429893800</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -2648,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -2657,13 +2685,13 @@
         <v>6470</v>
       </c>
       <c r="E29" s="12">
-        <v>6470</v>
+        <v>6720</v>
       </c>
       <c r="F29" s="12">
         <v>104012011150</v>
       </c>
       <c r="G29" s="12">
-        <v>104012011150</v>
+        <v>108031022400</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2671,7 +2699,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -2680,13 +2708,13 @@
         <v>11500</v>
       </c>
       <c r="E30" s="12">
-        <v>12350</v>
+        <v>11500</v>
       </c>
       <c r="F30" s="12">
         <v>213900000000</v>
       </c>
       <c r="G30" s="12">
-        <v>229710000000</v>
+        <v>213900000000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2702,14 +2730,14 @@
       <c r="D31" s="12">
         <v>1120</v>
       </c>
-      <c r="E31" s="11">
-        <v>991</v>
+      <c r="E31" s="12">
+        <v>1590</v>
       </c>
       <c r="F31" s="12">
         <v>100090514720</v>
       </c>
       <c r="G31" s="12">
-        <v>90143613534</v>
+        <v>144630015660</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -2717,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2726,13 +2754,13 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>11500</v>
+        <v>12050</v>
       </c>
       <c r="F32" s="12">
         <v>211534583300</v>
       </c>
       <c r="G32" s="12">
-        <v>250788423500</v>
+        <v>262782652450</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2740,7 +2768,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2749,13 +2777,13 @@
         <v>8840</v>
       </c>
       <c r="E33" s="12">
-        <v>7950</v>
+        <v>7770</v>
       </c>
       <c r="F33" s="12">
         <v>103840023560</v>
       </c>
       <c r="G33" s="12">
-        <v>93385541550</v>
+        <v>91271151930</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2763,7 +2791,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2786,7 +2814,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2795,13 +2823,13 @@
         <v>11400</v>
       </c>
       <c r="E35" s="12">
-        <v>11200</v>
+        <v>10550</v>
       </c>
       <c r="F35" s="12">
         <v>272594497200</v>
       </c>
       <c r="G35" s="12">
-        <v>267812137600</v>
+        <v>252269468900</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2809,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2818,13 +2846,13 @@
         <v>12800</v>
       </c>
       <c r="E36" s="12">
-        <v>11600</v>
+        <v>10700</v>
       </c>
       <c r="F36" s="12">
         <v>152715878400</v>
       </c>
       <c r="G36" s="12">
-        <v>138398764800</v>
+        <v>127660929600</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2832,22 +2860,22 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
       </c>
       <c r="D37" s="12">
-        <v>13200</v>
+        <v>6604</v>
       </c>
       <c r="E37" s="12">
-        <v>14950</v>
+        <v>7960</v>
       </c>
       <c r="F37" s="12">
         <v>150380604000</v>
       </c>
       <c r="G37" s="12">
-        <v>162842396600</v>
+        <v>173408090560</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2855,7 +2883,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2864,13 +2892,13 @@
         <v>13700</v>
       </c>
       <c r="E38" s="12">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F38" s="12">
         <v>107682000000</v>
       </c>
       <c r="G38" s="12">
-        <v>104538000000</v>
+        <v>101394000000</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2902,20 +2930,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="H1" s="13">
         <f>AVERAGE(H14:H38)</f>
-        <v>-3.8488782293239494E-2</v>
+        <v>-3.3407850275915398E-2</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -2924,22 +2952,22 @@
       </c>
       <c r="H2">
         <f>COUNTIF(H14:H38,"&gt;=0")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
       </c>
       <c r="H3">
         <f>COUNTIF(H14:H38,"&lt;0")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -2957,7 +2985,7 @@
       </c>
       <c r="H4" s="13">
         <f>MAX(H14:H38)</f>
-        <v>0.22908366533864544</v>
+        <v>0.41964285714285721</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
@@ -2978,7 +3006,7 @@
       </c>
       <c r="H5" s="13">
         <f>MIN(H14:H38)</f>
-        <v>-0.20714285714285718</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2989,11 +3017,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H6" s="13">
         <f>O14/N14-1</f>
-        <v>2.2983182331316687E-2</v>
+        <v>1.0432991907504796E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3010,7 +3038,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -3029,16 +3057,16 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>44</v>
@@ -3050,7 +3078,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -3068,7 +3096,7 @@
       <c r="H10" s="13"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
@@ -3087,7 +3115,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -3106,7 +3134,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -3127,7 +3155,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3136,7 +3164,7 @@
       <c r="G12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3146,54 +3174,54 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="L13" s="10" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -3202,44 +3230,44 @@
         <v>6260</v>
       </c>
       <c r="E14" s="12">
-        <v>6450</v>
+        <v>7170</v>
       </c>
       <c r="F14" s="12">
         <v>96842200000</v>
       </c>
       <c r="G14" s="12">
-        <v>99781500000</v>
+        <v>110919900000</v>
       </c>
       <c r="H14" s="13">
         <f>E14/D14-1</f>
-        <v>3.0351437699680517E-2</v>
+        <v>0.14536741214057503</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="16">
         <v>2418.29</v>
       </c>
       <c r="O14" s="16">
-        <v>2473.87</v>
+        <v>2443.52</v>
       </c>
       <c r="P14" s="15">
         <v>1519224318667750</v>
       </c>
       <c r="Q14" s="15">
-        <v>1547313042422460</v>
+        <v>1535629495111100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -3247,26 +3275,22 @@
       <c r="D15" s="12">
         <v>50200</v>
       </c>
-      <c r="E15" s="12">
-        <v>61700</v>
-      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="12">
         <v>90313665400</v>
       </c>
-      <c r="G15" s="12">
-        <v>111003050900</v>
-      </c>
+      <c r="G15" s="12"/>
       <c r="H15" s="13">
         <f t="shared" ref="H15:H38" si="0">E15/D15-1</f>
-        <v>0.22908366533864544</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -3275,25 +3299,25 @@
         <v>857</v>
       </c>
       <c r="E16" s="11">
-        <v>734</v>
+        <v>933</v>
       </c>
       <c r="F16" s="12">
         <v>40110287552</v>
       </c>
       <c r="G16" s="12">
-        <v>34353501824</v>
+        <v>43667325888</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="0"/>
-        <v>-0.14352392065344222</v>
+        <v>8.8681446907817874E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -3302,17 +3326,17 @@
         <v>12100</v>
       </c>
       <c r="E17" s="12">
-        <v>12200</v>
+        <v>13450</v>
       </c>
       <c r="F17" s="12">
         <v>62315000000</v>
       </c>
       <c r="G17" s="12">
-        <v>62830000000</v>
+        <v>69267500000</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>8.2644628099173278E-3</v>
+        <v>0.11157024793388426</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -3320,7 +3344,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -3329,17 +3353,17 @@
         <v>6470</v>
       </c>
       <c r="E18" s="12">
-        <v>6400</v>
+        <v>6720</v>
       </c>
       <c r="F18" s="12">
         <v>104012011150</v>
       </c>
       <c r="G18" s="12">
-        <v>102886688000</v>
+        <v>108031022400</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="0"/>
-        <v>-1.0819165378670781E-2</v>
+        <v>3.863987635239563E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -3347,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3355,18 +3379,18 @@
       <c r="D19" s="12">
         <v>1120</v>
       </c>
-      <c r="E19" s="11">
-        <v>888</v>
+      <c r="E19" s="12">
+        <v>1590</v>
       </c>
       <c r="F19" s="12">
         <v>100090514720</v>
       </c>
       <c r="G19" s="12">
-        <v>80774499312</v>
+        <v>144630015660</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="0"/>
-        <v>-0.20714285714285718</v>
+        <v>0.41964285714285721</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -3374,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -3383,17 +3407,17 @@
         <v>5670</v>
       </c>
       <c r="E20" s="12">
-        <v>5390</v>
+        <v>5410</v>
       </c>
       <c r="F20" s="12">
         <v>242884758060</v>
       </c>
       <c r="G20" s="12">
-        <v>230890449020</v>
+        <v>231747185380</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="0"/>
-        <v>-4.9382716049382713E-2</v>
+        <v>-4.585537918871252E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -3401,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -3410,17 +3434,17 @@
         <v>9400</v>
       </c>
       <c r="E21" s="12">
-        <v>9140</v>
+        <v>9060</v>
       </c>
       <c r="F21" s="12">
         <v>114574062000</v>
       </c>
       <c r="G21" s="12">
-        <v>111404992200</v>
+        <v>110429893800</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="0"/>
-        <v>-2.7659574468085091E-2</v>
+        <v>-3.6170212765957444E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -3428,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3437,17 +3461,17 @@
         <v>6790</v>
       </c>
       <c r="E22" s="12">
-        <v>6290</v>
+        <v>6140</v>
       </c>
       <c r="F22" s="12">
         <v>135935800000</v>
       </c>
       <c r="G22" s="12">
-        <v>125925800000</v>
+        <v>122922800000</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="0"/>
-        <v>-7.3637702503681846E-2</v>
+        <v>-9.5729013254786444E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -3455,7 +3479,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -3464,17 +3488,17 @@
         <v>12800</v>
       </c>
       <c r="E23" s="12">
-        <v>10250</v>
+        <v>10700</v>
       </c>
       <c r="F23" s="12">
         <v>152715878400</v>
       </c>
       <c r="G23" s="12">
-        <v>122292012000</v>
+        <v>127660929600</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="0"/>
-        <v>-0.19921875</v>
+        <v>-0.1640625</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -3482,7 +3506,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -3491,25 +3515,25 @@
         <v>13700</v>
       </c>
       <c r="E24" s="12">
-        <v>12650</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="12">
         <v>107682000000</v>
       </c>
       <c r="G24" s="12">
-        <v>99429000000</v>
+        <v>101394000000</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="0"/>
-        <v>-7.664233576642332E-2</v>
+        <v>-5.8394160583941646E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
@@ -3518,25 +3542,25 @@
         <v>5380</v>
       </c>
       <c r="E25" s="12">
-        <v>5410</v>
+        <v>5180</v>
       </c>
       <c r="F25" s="12">
         <v>40350000000</v>
       </c>
       <c r="G25" s="12">
-        <v>40575000000</v>
+        <v>38850000000</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="0"/>
-        <v>5.5762081784387352E-3</v>
+        <v>-3.7174721189591087E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -3545,25 +3569,25 @@
         <v>14450</v>
       </c>
       <c r="E26" s="12">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F26" s="12">
         <v>69649000000</v>
       </c>
       <c r="G26" s="12">
-        <v>62178000000</v>
+        <v>62660000000</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="0"/>
-        <v>-0.10726643598615915</v>
+        <v>-0.10034602076124566</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -3572,25 +3596,25 @@
         <v>7480</v>
       </c>
       <c r="E27" s="12">
-        <v>7700</v>
+        <v>7750</v>
       </c>
       <c r="F27" s="12">
         <v>99431146320</v>
       </c>
       <c r="G27" s="12">
-        <v>102355591800</v>
+        <v>103020238500</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="0"/>
-        <v>2.9411764705882248E-2</v>
+        <v>3.6096256684492012E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -3599,17 +3623,17 @@
         <v>28000</v>
       </c>
       <c r="E28" s="12">
-        <v>27250</v>
+        <v>28200</v>
       </c>
       <c r="F28" s="12">
         <v>87182816000</v>
       </c>
       <c r="G28" s="12">
-        <v>84847562000</v>
+        <v>87805550400</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v>-2.6785714285714302E-2</v>
+        <v>7.1428571428571175E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -3617,7 +3641,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -3626,17 +3650,17 @@
         <v>12900</v>
       </c>
       <c r="E29" s="12">
-        <v>15050</v>
+        <v>14950</v>
       </c>
       <c r="F29" s="12">
         <v>7223726713500</v>
       </c>
       <c r="G29" s="12">
-        <v>8427681165750</v>
+        <v>8371683284250</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>0.1589147286821706</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -3644,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -3653,17 +3677,17 @@
         <v>13300</v>
       </c>
       <c r="E30" s="12">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="F30" s="12">
         <v>160179880000</v>
       </c>
       <c r="G30" s="12">
-        <v>167406040000</v>
+        <v>174632200000</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="0"/>
-        <v>4.5112781954887327E-2</v>
+        <v>9.0225563909774431E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -3671,7 +3695,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -3680,17 +3704,17 @@
         <v>8840</v>
       </c>
       <c r="E31" s="12">
-        <v>7470</v>
+        <v>7770</v>
       </c>
       <c r="F31" s="12">
         <v>103840023560</v>
       </c>
       <c r="G31" s="12">
-        <v>87747169230</v>
+        <v>91271151930</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="0"/>
-        <v>-0.15497737556561086</v>
+        <v>-0.12104072398190047</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -3698,7 +3722,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -3707,25 +3731,25 @@
         <v>9700</v>
       </c>
       <c r="E32" s="12">
-        <v>10400</v>
+        <v>12050</v>
       </c>
       <c r="F32" s="12">
         <v>211534583300</v>
       </c>
       <c r="G32" s="12">
-        <v>226799965600</v>
+        <v>262782652450</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v>7.2164948453608213E-2</v>
+        <v>0.24226804123711343</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -3734,25 +3758,25 @@
         <v>6460</v>
       </c>
       <c r="E33" s="12">
-        <v>5550</v>
+        <v>5660</v>
       </c>
       <c r="F33" s="12">
         <v>57881600000</v>
       </c>
       <c r="G33" s="12">
-        <v>49728000000</v>
+        <v>50713600000</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.14086687306501544</v>
+        <v>-0.12383900928792568</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -3761,17 +3785,17 @@
         <v>6040</v>
       </c>
       <c r="E34" s="12">
-        <v>5550</v>
+        <v>5100</v>
       </c>
       <c r="F34" s="12">
         <v>75968136240</v>
       </c>
       <c r="G34" s="12">
-        <v>69805158300</v>
+        <v>64145280600</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="0"/>
-        <v>-8.1125827814569562E-2</v>
+        <v>-0.1556291390728477</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -3779,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -3788,25 +3812,25 @@
         <v>16600</v>
       </c>
       <c r="E35" s="12">
-        <v>14150</v>
+        <v>14200</v>
       </c>
       <c r="F35" s="12">
         <v>206683280000</v>
       </c>
       <c r="G35" s="12">
-        <v>176178820000</v>
+        <v>176801360000</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>-0.14759036144578308</v>
+        <v>-0.14457831325301207</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -3815,17 +3839,17 @@
         <v>5040</v>
       </c>
       <c r="E36" s="12">
-        <v>4785</v>
+        <v>5020</v>
       </c>
       <c r="F36" s="12">
         <v>47031793200</v>
       </c>
       <c r="G36" s="12">
-        <v>44652208425</v>
+        <v>46845159100</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="0"/>
-        <v>-5.0595238095238138E-2</v>
+        <v>-3.9682539682539542E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -3833,7 +3857,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -3842,17 +3866,17 @@
         <v>11400</v>
       </c>
       <c r="E37" s="12">
-        <v>11000</v>
+        <v>10550</v>
       </c>
       <c r="F37" s="12">
         <v>272594497200</v>
       </c>
       <c r="G37" s="12">
-        <v>263029778000</v>
+        <v>252269468900</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="0"/>
-        <v>-3.5087719298245612E-2</v>
+        <v>-7.456140350877194E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3860,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -3869,17 +3893,17 @@
         <v>12100</v>
       </c>
       <c r="E38" s="12">
-        <v>11900</v>
+        <v>11950</v>
       </c>
       <c r="F38" s="12">
         <v>117402742600</v>
       </c>
       <c r="G38" s="12">
-        <v>115462201400</v>
+        <v>115947336700</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="0"/>
-        <v>-1.6528925619834656E-2</v>
+        <v>-1.2396694214875992E-2</v>
       </c>
     </row>
   </sheetData>

--- a/25종목 수익률 결과 저장/20170531 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170531 25종목.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="183">
   <si>
     <t xml:space="preserve">     Refresh     </t>
   </si>
@@ -517,17 +517,9 @@
     <t>A049520</t>
   </si>
   <si>
-    <t>A049520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A079960</t>
   </si>
   <si>
-    <t>A079960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,391 +622,419 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:04:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:07:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성합동지주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전자홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서호전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이씨에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비코전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인포바인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랜티넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화정공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005930</t>
+  </si>
+  <si>
+    <t>A032190</t>
+  </si>
+  <si>
+    <t>A002150</t>
+  </si>
+  <si>
+    <t>A016610</t>
+  </si>
+  <si>
+    <t>A011160</t>
+  </si>
+  <si>
+    <t>A042420</t>
+  </si>
+  <si>
+    <t>A035510</t>
+  </si>
+  <si>
+    <t>A079370</t>
+  </si>
+  <si>
+    <t>A001750</t>
+  </si>
+  <si>
+    <t>A059090</t>
+  </si>
+  <si>
+    <t>A009200</t>
+  </si>
+  <si>
+    <t>A005010</t>
+  </si>
+  <si>
+    <t>A049070</t>
+  </si>
+  <si>
+    <t>A001500</t>
+  </si>
+  <si>
+    <t>A035600</t>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-05 14:17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>다우데이타</t>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+  </si>
+  <si>
+    <t>이라이콤</t>
+  </si>
+  <si>
+    <t>도화엔지니어링</t>
+  </si>
+  <si>
+    <t>동부증권</t>
+  </si>
+  <si>
+    <t>두산건설</t>
+  </si>
+  <si>
+    <t>네오위즈홀딩스</t>
+  </si>
+  <si>
+    <t>신세계 I&amp;C</t>
+  </si>
+  <si>
+    <t>제우스</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
+    <t>한양증권</t>
+  </si>
+  <si>
+    <t>미코</t>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+  </si>
+  <si>
+    <t>이크레더블</t>
+  </si>
+  <si>
+    <t>휴스틸</t>
+  </si>
+  <si>
+    <t>인탑스</t>
+  </si>
+  <si>
+    <t>골프존</t>
+  </si>
+  <si>
+    <t>가온전선</t>
+  </si>
+  <si>
+    <t>유아이엘</t>
+  </si>
+  <si>
+    <t>현대차투자증권</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>KG이니시스</t>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-05 14:17:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-01 14:04:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼영전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-01 14:04:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-01 14:07:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성도이엔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대성합동지주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전자홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서호전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이씨에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드백화점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아비코전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인포바인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랜티넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인화정공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-01 14:07:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,16 +1504,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="13" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1502,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="13">
         <f>AVERAGE(F14:F38)</f>
-        <v>1.7931402251477067E-2</v>
+        <v>2.8007449289480686E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1532,7 +1553,7 @@
       </c>
       <c r="G4">
         <f>COUNTIF(F14:F38,"&gt;=0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1544,7 +1565,7 @@
       </c>
       <c r="G5">
         <f>COUNTIF(F14:F38,"&lt;0")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1552,7 +1573,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="13">
         <f>MAX(F14:F38)</f>
@@ -1564,17 +1585,17 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="13">
         <f>MIN(F14:F38)</f>
-        <v>-0.1640625</v>
+        <v>-0.15463917525773196</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -1589,20 +1610,20 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
         <v>20170531</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
+      <c r="E10" s="7">
+        <v>20170831</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -1617,7 +1638,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1625,544 +1646,544 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
       </c>
       <c r="D14" s="12">
-        <v>6790</v>
+        <v>2235000</v>
       </c>
       <c r="E14" s="12">
-        <v>6140</v>
+        <v>2316000</v>
       </c>
       <c r="F14" s="13">
         <f>E14/D14-1</f>
-        <v>-9.5729013254786444E-2</v>
+        <v>3.6241610738255048E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
       </c>
       <c r="D15" s="12">
-        <v>24800</v>
+        <v>9700</v>
       </c>
       <c r="E15" s="12">
-        <v>23600</v>
+        <v>12050</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" ref="F15:F38" si="0">E15/D15-1</f>
-        <v>-4.8387096774193505E-2</v>
+        <v>0.24226804123711343</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
       </c>
       <c r="D16" s="12">
-        <v>53200</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="12">
-        <v>60500</v>
+        <v>1590</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>0.13721804511278202</v>
+        <v>0.41964285714285721</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
       </c>
       <c r="D17" s="12">
-        <v>27400</v>
+        <v>12050</v>
       </c>
       <c r="E17" s="12">
-        <v>30550</v>
+        <v>11900</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>0.11496350364963503</v>
+        <v>-1.2448132780082943E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
       </c>
       <c r="D18" s="12">
-        <v>16600</v>
+        <v>5670</v>
       </c>
       <c r="E18" s="12">
-        <v>14200</v>
+        <v>5410</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>-0.14457831325301207</v>
+        <v>-4.585537918871252E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
       </c>
       <c r="D19" s="12">
-        <v>12900</v>
+        <v>9400</v>
       </c>
       <c r="E19" s="12">
-        <v>14950</v>
+        <v>9060</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>0.1589147286821706</v>
+        <v>-3.6170212765957444E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
       </c>
       <c r="D20" s="12">
-        <v>7750</v>
+        <v>5060</v>
       </c>
       <c r="E20" s="12">
-        <v>7850</v>
+        <v>5280</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>1.2903225806451646E-2</v>
+        <v>4.3478260869565188E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
       </c>
       <c r="D21" s="12">
-        <v>21450</v>
+        <v>3960</v>
       </c>
       <c r="E21" s="12">
-        <v>19700</v>
+        <v>3845</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>-8.1585081585081598E-2</v>
+        <v>-2.9040404040404089E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
       </c>
       <c r="D22" s="12">
-        <v>12100</v>
+        <v>3835</v>
       </c>
       <c r="E22" s="12">
-        <v>11950</v>
+        <v>3350</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
-        <v>-1.2396694214875992E-2</v>
+        <v>-0.12646675358539761</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
       </c>
       <c r="D23" s="12">
-        <v>7530</v>
+        <v>16300</v>
       </c>
       <c r="E23" s="12">
-        <v>7460</v>
+        <v>14700</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>-9.2961487383798058E-3</v>
+        <v>-9.8159509202453976E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
       </c>
       <c r="D24" s="12">
-        <v>13300</v>
+        <v>73700</v>
       </c>
       <c r="E24" s="12">
-        <v>14500</v>
+        <v>79200</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
-        <v>9.0225563909774431E-2</v>
+        <v>7.4626865671641784E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
       </c>
       <c r="D25" s="12">
-        <v>5670</v>
+        <v>18500</v>
       </c>
       <c r="E25" s="12">
-        <v>5410</v>
+        <v>16450</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
-        <v>-4.585537918871252E-2</v>
+        <v>-0.11081081081081079</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
       </c>
       <c r="D26" s="12">
-        <v>12200</v>
+        <v>21450</v>
       </c>
       <c r="E26" s="12">
-        <v>13200</v>
+        <v>19700</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>8.1967213114754189E-2</v>
+        <v>-8.1585081585081598E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
       </c>
       <c r="D27" s="12">
-        <v>58200</v>
+        <v>7680</v>
       </c>
       <c r="E27" s="12">
-        <v>49200</v>
+        <v>8580</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>-0.15463917525773196</v>
+        <v>0.1171875</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
       </c>
       <c r="D28" s="12">
-        <v>9400</v>
+        <v>3340</v>
       </c>
       <c r="E28" s="12">
-        <v>9060</v>
+        <v>3910</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>-3.6170212765957444E-2</v>
+        <v>0.1706586826347305</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
       </c>
       <c r="D29" s="12">
-        <v>6470</v>
+        <v>2750</v>
       </c>
       <c r="E29" s="12">
-        <v>6720</v>
+        <v>2605</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
-        <v>3.863987635239563E-2</v>
+        <v>-5.2727272727272734E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
       </c>
       <c r="D30" s="12">
-        <v>11500</v>
+        <v>13300</v>
       </c>
       <c r="E30" s="12">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0225563909774431E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
       </c>
       <c r="D31" s="12">
-        <v>1120</v>
+        <v>15850</v>
       </c>
       <c r="E31" s="12">
-        <v>1590</v>
+        <v>15950</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="0"/>
-        <v>0.41964285714285721</v>
+        <v>6.3091482649841879E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
       </c>
       <c r="D32" s="12">
-        <v>9700</v>
+        <v>11450</v>
       </c>
       <c r="E32" s="12">
-        <v>12050</v>
+        <v>11050</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>0.24226804123711343</v>
+        <v>-3.4934497816593857E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
       </c>
       <c r="D33" s="12">
-        <v>8840</v>
+        <v>58200</v>
       </c>
       <c r="E33" s="12">
-        <v>7770</v>
+        <v>49200</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.12104072398190047</v>
+        <v>-0.15463917525773196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
       </c>
       <c r="D34" s="12">
-        <v>14100</v>
+        <v>24800</v>
       </c>
       <c r="E34" s="12">
-        <v>14000</v>
+        <v>23600</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>-7.0921985815602939E-3</v>
+        <v>-4.8387096774193505E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
       </c>
       <c r="D35" s="12">
-        <v>11400</v>
+        <v>6604</v>
       </c>
       <c r="E35" s="12">
-        <v>10550</v>
+        <v>7960</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>-7.456140350877194E-2</v>
+        <v>0.20533010296789822</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
       </c>
       <c r="D36" s="12">
-        <v>12800</v>
+        <v>11950</v>
       </c>
       <c r="E36" s="12">
-        <v>10700</v>
+        <v>10950</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
-        <v>-0.1640625</v>
+        <v>-8.3682008368200833E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
       </c>
       <c r="D37" s="12">
-        <v>6604</v>
+        <v>12900</v>
       </c>
       <c r="E37" s="12">
-        <v>7960</v>
+        <v>14950</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
-        <v>0.20533010296789822</v>
+        <v>0.1589147286821706</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
       </c>
       <c r="D38" s="12">
-        <v>13700</v>
+        <v>11950</v>
       </c>
       <c r="E38" s="12">
-        <v>12900</v>
+        <v>12550</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="0"/>
-        <v>-5.8394160583941646E-2</v>
+        <v>5.0209205020920411E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2180,10 +2201,10 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2197,12 +2218,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2234,7 +2255,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2246,16 +2267,16 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -2274,7 +2295,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -2286,16 +2307,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2305,13 +2326,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>34</v>
@@ -2320,10 +2341,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2331,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -2354,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -2377,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -2400,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -2423,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -2446,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -2469,7 +2490,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -2492,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -2515,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -2538,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -2561,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -2584,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -2607,7 +2628,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -2630,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -2653,7 +2674,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -2676,7 +2697,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -2699,7 +2720,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -2722,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2745,7 +2766,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2768,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2791,7 +2812,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2814,7 +2835,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2837,7 +2858,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2860,7 +2881,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2880,10 +2901,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2915,14 +2936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="7" width="14.69921875" customWidth="1"/>
     <col min="11" max="14" width="14.69921875" customWidth="1"/>
+    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2930,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="13">
         <f>AVERAGE(H14:H38)</f>
@@ -2943,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -2957,7 +2979,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -2967,7 +2989,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -2981,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="13">
         <f>MAX(H14:H38)</f>
@@ -3002,7 +3024,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" s="13">
         <f>MIN(H14:H38)</f>
@@ -3017,7 +3039,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="13">
         <f>O14/N14-1</f>
@@ -3038,7 +3060,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -3050,29 +3072,29 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -3096,26 +3118,26 @@
       <c r="H10" s="13"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
         <v>20170531</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>28</v>
+      <c r="O10" s="7">
+        <v>20170831</v>
       </c>
       <c r="P10" s="7">
         <v>20170531</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>28</v>
+      <c r="Q10" s="7">
+        <v>20170831</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -3127,14 +3149,14 @@
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -3146,16 +3168,16 @@
         <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3164,7 +3186,7 @@
       <c r="G12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3174,54 +3196,54 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -3243,10 +3265,10 @@
         <v>0.14536741214057503</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="16">
@@ -3264,10 +3286,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -3287,10 +3309,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -3314,10 +3336,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -3344,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -3371,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3398,7 +3420,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -3425,7 +3447,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -3452,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3479,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -3503,10 +3525,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -3530,10 +3552,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
@@ -3557,10 +3579,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -3584,10 +3606,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -3611,10 +3633,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -3641,7 +3663,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -3668,7 +3690,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -3695,7 +3717,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -3722,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -3746,10 +3768,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -3773,10 +3795,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -3803,7 +3825,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -3827,10 +3849,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -3857,7 +3879,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -3884,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>

--- a/25종목 수익률 결과 저장/20170531 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170531 25종목.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
   <si>
     <t xml:space="preserve">     Refresh     </t>
   </si>
@@ -607,9 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W100</t>
-  </si>
-  <si>
     <t>S100100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,19 +615,415 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:04:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화천기공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원인텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-01 14:07:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성합동지주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전자홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서호전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양이엔피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이씨에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비코전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인포바인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랜티넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화정공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005930</t>
+  </si>
+  <si>
+    <t>A032190</t>
+  </si>
+  <si>
+    <t>A002150</t>
+  </si>
+  <si>
+    <t>A016610</t>
+  </si>
+  <si>
+    <t>A011160</t>
+  </si>
+  <si>
+    <t>A042420</t>
+  </si>
+  <si>
+    <t>A035510</t>
+  </si>
+  <si>
+    <t>A079370</t>
+  </si>
+  <si>
+    <t>A001750</t>
+  </si>
+  <si>
+    <t>A059090</t>
+  </si>
+  <si>
+    <t>A009200</t>
+  </si>
+  <si>
+    <t>A005010</t>
+  </si>
+  <si>
+    <t>A049070</t>
+  </si>
+  <si>
+    <t>A001500</t>
+  </si>
+  <si>
+    <t>A035600</t>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-05 14:17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>다우데이타</t>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+  </si>
+  <si>
+    <t>이라이콤</t>
+  </si>
+  <si>
+    <t>도화엔지니어링</t>
+  </si>
+  <si>
+    <t>동부증권</t>
+  </si>
+  <si>
+    <t>두산건설</t>
+  </si>
+  <si>
+    <t>네오위즈홀딩스</t>
+  </si>
+  <si>
+    <t>신세계 I&amp;C</t>
+  </si>
+  <si>
+    <t>제우스</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
+    <t>한양증권</t>
+  </si>
+  <si>
+    <t>미코</t>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+  </si>
+  <si>
+    <t>이크레더블</t>
+  </si>
+  <si>
+    <t>휴스틸</t>
+  </si>
+  <si>
+    <t>인탑스</t>
+  </si>
+  <si>
+    <t>골프존</t>
+  </si>
+  <si>
+    <t>가온전선</t>
+  </si>
+  <si>
+    <t>유아이엘</t>
+  </si>
+  <si>
+    <t>현대차투자증권</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>KG이니시스</t>
+  </si>
+  <si>
     <t>종가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-06 15:59:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,123 +1031,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-01 14:04:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화천기공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른저축은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG모빌리언스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-01 14:07:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
+    <t>Base Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -762,279 +1039,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성도이엔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대성합동지주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전자홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서호전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양이엔피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이씨에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드백화점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아비코전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인포바인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랜티넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인화정공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A005930</t>
-  </si>
-  <si>
-    <t>A032190</t>
-  </si>
-  <si>
-    <t>A002150</t>
-  </si>
-  <si>
-    <t>A016610</t>
-  </si>
-  <si>
-    <t>A011160</t>
-  </si>
-  <si>
-    <t>A042420</t>
-  </si>
-  <si>
-    <t>A035510</t>
-  </si>
-  <si>
-    <t>A079370</t>
-  </si>
-  <si>
-    <t>A001750</t>
-  </si>
-  <si>
-    <t>A059090</t>
-  </si>
-  <si>
-    <t>A009200</t>
-  </si>
-  <si>
-    <t>A005010</t>
-  </si>
-  <si>
-    <t>A049070</t>
-  </si>
-  <si>
-    <t>A001500</t>
-  </si>
-  <si>
-    <t>A035600</t>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-05 14:17:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>다우데이타</t>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-  </si>
-  <si>
-    <t>이라이콤</t>
-  </si>
-  <si>
-    <t>도화엔지니어링</t>
-  </si>
-  <si>
-    <t>동부증권</t>
-  </si>
-  <si>
-    <t>두산건설</t>
-  </si>
-  <si>
-    <t>네오위즈홀딩스</t>
-  </si>
-  <si>
-    <t>신세계 I&amp;C</t>
-  </si>
-  <si>
-    <t>제우스</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
-    <t>한양증권</t>
-  </si>
-  <si>
-    <t>미코</t>
-  </si>
-  <si>
-    <t>무림페이퍼</t>
-  </si>
-  <si>
-    <t>이크레더블</t>
-  </si>
-  <si>
-    <t>휴스틸</t>
-  </si>
-  <si>
-    <t>인탑스</t>
-  </si>
-  <si>
-    <t>골프존</t>
-  </si>
-  <si>
-    <t>가온전선</t>
-  </si>
-  <si>
-    <t>유아이엘</t>
-  </si>
-  <si>
-    <t>현대차투자증권</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>KG이니시스</t>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-05 14:17:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSE</t>
+    <t>KOSPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
@@ -1523,12 +1528,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1595,7 +1600,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -1610,7 +1615,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1623,7 +1628,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -1638,7 +1643,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1649,24 +1654,24 @@
         <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -1687,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -1708,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -1726,10 +1731,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -1750,7 +1755,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -1771,7 +1776,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -1789,10 +1794,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -1810,10 +1815,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -1831,10 +1836,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -1852,10 +1857,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -1873,10 +1878,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -1894,10 +1899,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -1918,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -1936,10 +1941,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -1957,10 +1962,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -1978,10 +1983,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -2002,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -2020,10 +2025,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2041,10 +2046,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2065,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2086,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2107,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2125,10 +2130,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2149,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2167,10 +2172,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2218,12 +2223,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2276,7 +2281,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -2295,7 +2300,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -2326,13 +2331,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>34</v>
@@ -2352,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -2375,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -2398,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -2421,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -2444,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -2467,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -2490,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -2513,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -2536,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -2559,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -2582,7 +2587,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -2605,7 +2610,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
@@ -2628,7 +2633,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -2651,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -2697,7 +2702,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -2720,7 +2725,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -2743,7 +2748,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2766,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -2835,7 +2840,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -2858,7 +2863,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2881,7 +2886,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2904,7 +2909,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2936,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2952,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
         <v>64</v>
@@ -2965,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -2989,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -3039,11 +3044,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="13">
         <f>O14/N14-1</f>
-        <v>1.0432991907504796E-2</v>
+        <v>6.7351685709173825E-3</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3079,16 +3084,16 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>42</v>
@@ -3118,7 +3123,7 @@
       <c r="H10" s="13"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
@@ -3137,7 +3142,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -3156,7 +3161,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -3186,7 +3191,7 @@
       <c r="G12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3196,16 +3201,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>34</v>
@@ -3214,28 +3219,28 @@
         <v>49</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -3243,7 +3248,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -3265,17 +3270,17 @@
         <v>0.14536741214057503</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="16">
-        <v>2418.29</v>
+        <v>2347.38</v>
       </c>
       <c r="O14" s="16">
-        <v>2443.52</v>
+        <v>2363.19</v>
       </c>
       <c r="P14" s="15">
         <v>1519224318667750</v>
@@ -3289,7 +3294,7 @@
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -3312,7 +3317,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -3339,7 +3344,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -3366,7 +3371,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
@@ -3393,7 +3398,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
@@ -3420,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
@@ -3447,7 +3452,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
@@ -3474,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3501,7 +3506,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -3528,7 +3533,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
@@ -3555,7 +3560,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
@@ -3582,7 +3587,7 @@
         <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
@@ -3609,7 +3614,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
@@ -3636,7 +3641,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
@@ -3663,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
@@ -3690,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
@@ -3717,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -3744,7 +3749,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -3771,7 +3776,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -3798,7 +3803,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -3825,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -3852,7 +3857,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -3879,7 +3884,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -3906,7 +3911,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>

--- a/25종목 수익률 결과 저장/20170531 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170531 25종목.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_data" sheetId="2" r:id="rId1"/>
-    <sheet name="시가총액" sheetId="3" r:id="rId2"/>
-    <sheet name="시총제한x" sheetId="6" r:id="rId3"/>
+    <sheet name="32333738" sheetId="9" r:id="rId1"/>
+    <sheet name="32343537" sheetId="8" r:id="rId2"/>
+    <sheet name="323438" sheetId="2" r:id="rId3"/>
+    <sheet name="시가총액" sheetId="3" r:id="rId4"/>
+    <sheet name="시총제한x" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -272,6 +274,178 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+KRW
+KRW thou
+KRW mn
+KRW 100mn
+KRW bil
+%
+R
+X
+No.
+Shares
+Shares thou
+Shares mn
+Actual
+thou
+mn
+100mn
+bil
+dt
+Txt
+Type
+KRW/Shares
+KRW/pt.
+P
+#
+%p</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>이상훈</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0 or AL - All Listed
+1 or MF - Manufacturing
+2 or BK - Banking
+3 or IS - Insurance
+4 or SC - Securities
+6 or MS - Mutual Savings
+7 or MB - Merchant Banking
+8 or CF - Credit Finance
+9 or OF - Other Financing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>K - Korean
+E - English</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+KRW
+KRW thou
+KRW mn
+KRW 100mn
+KRW bil
+%
+R
+X
+No.
+Shares
+Shares thou
+Shares mn
+Actual
+thou
+mn
+100mn
+bil
+dt
+Txt
+Type
+KRW/Shares
+KRW/pt.
+P
+#
+%p</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>이상훈</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0 or AL - All Listed
+1 or MF - Manufacturing
+2 or BK - Banking
+3 or IS - Insurance
+4 or SC - Securities
+6 or MS - Mutual Savings
+7 or MB - Merchant Banking
+8 or CF - Credit Finance
+9 or OF - Other Financing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>K - Korean
+E - English</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -392,7 +566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="251">
   <si>
     <t xml:space="preserve">     Refresh     </t>
   </si>
@@ -1040,6 +1214,262 @@
   </si>
   <si>
     <t>KOSPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A033170</t>
+  </si>
+  <si>
+    <t>A067310</t>
+  </si>
+  <si>
+    <t>A037460</t>
+  </si>
+  <si>
+    <t>A011760</t>
+  </si>
+  <si>
+    <t>A031330</t>
+  </si>
+  <si>
+    <t>A003070</t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-08 08:10:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우데이타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계 I&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG이니시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼지전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대상사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스에이엠티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인탑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코오롱글로벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A000540</t>
+  </si>
+  <si>
+    <t>A036710</t>
+  </si>
+  <si>
+    <t>A000880</t>
+  </si>
+  <si>
+    <t>A000370</t>
+  </si>
+  <si>
+    <t>A030610</t>
+  </si>
+  <si>
+    <t>A014790</t>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-08 08:14:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우데이타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥국화재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계 I&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼지전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코오롱글로벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심텍홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화손해보험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG이니시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인탑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,11 +1939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1528,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="13">
         <f>AVERAGE(F14:F38)</f>
-        <v>2.8007449289480686E-2</v>
+        <v>3.0771616752004665E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1582,7 +2012,7 @@
       </c>
       <c r="G6" s="13">
         <f>MAX(F14:F38)</f>
-        <v>0.41964285714285721</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1594,13 +2024,13 @@
       </c>
       <c r="G7" s="13">
         <f>MIN(F14:F38)</f>
-        <v>-0.15463917525773196</v>
+        <v>-0.28472222222222221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -1615,7 +2045,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1628,7 +2058,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
@@ -1643,7 +2073,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1654,16 +2084,16 @@
         <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1671,7 +2101,7 @@
         <v>127</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="C14" s="6">
         <v>12</v>
@@ -1692,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
@@ -1713,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -1731,464 +2161,464 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
       </c>
       <c r="D17" s="12">
-        <v>12050</v>
+        <v>5200</v>
       </c>
       <c r="E17" s="12">
-        <v>11900</v>
+        <v>4965</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>-1.2448132780082943E-2</v>
+        <v>-4.5192307692307643E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="C18" s="6">
         <v>12</v>
       </c>
       <c r="D18" s="12">
-        <v>5670</v>
+        <v>12050</v>
       </c>
       <c r="E18" s="12">
-        <v>5410</v>
+        <v>11900</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>-4.585537918871252E-2</v>
+        <v>-1.2448132780082943E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="C19" s="6">
         <v>12</v>
       </c>
       <c r="D19" s="12">
-        <v>9400</v>
+        <v>18500</v>
       </c>
       <c r="E19" s="12">
-        <v>9060</v>
+        <v>16450</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>-3.6170212765957444E-2</v>
+        <v>-0.11081081081081079</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="C20" s="6">
         <v>12</v>
       </c>
       <c r="D20" s="12">
-        <v>5060</v>
+        <v>3340</v>
       </c>
       <c r="E20" s="12">
-        <v>5280</v>
+        <v>3910</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>4.3478260869565188E-2</v>
+        <v>0.1706586826347305</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="C21" s="6">
         <v>12</v>
       </c>
       <c r="D21" s="12">
-        <v>3960</v>
+        <v>1405</v>
       </c>
       <c r="E21" s="12">
-        <v>3845</v>
+        <v>1420</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
-        <v>-2.9040404040404089E-2</v>
+        <v>1.067615658362997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
       </c>
       <c r="D22" s="12">
-        <v>3835</v>
+        <v>6470</v>
       </c>
       <c r="E22" s="12">
-        <v>3350</v>
+        <v>6720</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
-        <v>-0.12646675358539761</v>
+        <v>3.863987635239563E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
       </c>
       <c r="D23" s="12">
-        <v>16300</v>
+        <v>4805</v>
       </c>
       <c r="E23" s="12">
-        <v>14700</v>
+        <v>7130</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>-9.8159509202453976E-2</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
       </c>
       <c r="D24" s="12">
-        <v>73700</v>
+        <v>3960</v>
       </c>
       <c r="E24" s="12">
-        <v>79200</v>
+        <v>3845</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
-        <v>7.4626865671641784E-2</v>
+        <v>-2.9040404040404089E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
       </c>
       <c r="D25" s="12">
-        <v>18500</v>
+        <v>73700</v>
       </c>
       <c r="E25" s="12">
-        <v>16450</v>
+        <v>79200</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
-        <v>-0.11081081081081079</v>
+        <v>7.4626865671641784E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="C26" s="6">
         <v>12</v>
       </c>
       <c r="D26" s="12">
-        <v>21450</v>
+        <v>9140</v>
       </c>
       <c r="E26" s="12">
-        <v>19700</v>
+        <v>8450</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>-8.1585081585081598E-2</v>
+        <v>-7.5492341356673931E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
       </c>
       <c r="D27" s="12">
-        <v>7680</v>
+        <v>21450</v>
       </c>
       <c r="E27" s="12">
-        <v>8580</v>
+        <v>19700</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>0.1171875</v>
+        <v>-8.1585081585081598E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="C28" s="6">
         <v>12</v>
       </c>
       <c r="D28" s="12">
-        <v>3340</v>
+        <v>14400</v>
       </c>
       <c r="E28" s="12">
-        <v>3910</v>
+        <v>10300</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>0.1706586826347305</v>
+        <v>-0.28472222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="C29" s="6">
         <v>12</v>
       </c>
       <c r="D29" s="12">
-        <v>2750</v>
+        <v>3135</v>
       </c>
       <c r="E29" s="12">
-        <v>2605</v>
+        <v>3030</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
-        <v>-5.2727272727272734E-2</v>
+        <v>-3.349282296650713E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="C30" s="6">
         <v>12</v>
       </c>
       <c r="D30" s="12">
-        <v>13300</v>
+        <v>47850</v>
       </c>
       <c r="E30" s="12">
-        <v>14500</v>
+        <v>49150</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
-        <v>9.0225563909774431E-2</v>
+        <v>2.7168234064785857E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
       </c>
       <c r="D31" s="12">
-        <v>15850</v>
+        <v>5670</v>
       </c>
       <c r="E31" s="12">
-        <v>15950</v>
+        <v>5410</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="0"/>
-        <v>6.3091482649841879E-3</v>
+        <v>-4.585537918871252E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
       </c>
       <c r="D32" s="12">
-        <v>11450</v>
+        <v>7720</v>
       </c>
       <c r="E32" s="12">
-        <v>11050</v>
+        <v>9690</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>-3.4934497816593857E-2</v>
+        <v>0.25518134715025909</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
       </c>
       <c r="D33" s="12">
-        <v>58200</v>
+        <v>9710</v>
       </c>
       <c r="E33" s="12">
-        <v>49200</v>
+        <v>9710</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
-        <v>-0.15463917525773196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
       </c>
       <c r="D34" s="12">
-        <v>24800</v>
+        <v>11950</v>
       </c>
       <c r="E34" s="12">
-        <v>23600</v>
+        <v>12550</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>-4.8387096774193505E-2</v>
+        <v>5.0209205020920411E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
       </c>
       <c r="D35" s="12">
-        <v>6604</v>
+        <v>2750</v>
       </c>
       <c r="E35" s="12">
-        <v>7960</v>
+        <v>2605</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>0.20533010296789822</v>
+        <v>-5.2727272727272734E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
       </c>
       <c r="D36" s="12">
-        <v>11950</v>
+        <v>4890</v>
       </c>
       <c r="E36" s="12">
-        <v>10950</v>
+        <v>4550</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
-        <v>-8.3682008368200833E-2</v>
+        <v>-6.9529652351738247E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
       </c>
       <c r="D37" s="12">
-        <v>12900</v>
+        <v>11450</v>
       </c>
       <c r="E37" s="12">
-        <v>14950</v>
+        <v>11050</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
-        <v>0.1589147286821706</v>
+        <v>-3.4934497816593857E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
       </c>
       <c r="D38" s="12">
-        <v>11950</v>
+        <v>12800</v>
       </c>
       <c r="E38" s="12">
-        <v>12550</v>
+        <v>10700</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="0"/>
-        <v>5.0209205020920411E-2</v>
+        <v>-0.1640625</v>
       </c>
     </row>
   </sheetData>
@@ -2202,6 +2632,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGE(F14:F38)</f>
+        <v>-9.1102429474878566E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(F14:F38,"&gt;=0")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(F14:F38,"&lt;0")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="13">
+        <f>MAX(F14:F38)</f>
+        <v>0.41964285714285721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="13">
+        <f>MIN(F14:F38)</f>
+        <v>-0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>20170531</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20170831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2235000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2316000</v>
+      </c>
+      <c r="F14" s="13">
+        <f>E14/D14-1</f>
+        <v>3.6241610738255048E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12">
+        <v>9700</v>
+      </c>
+      <c r="E15" s="12">
+        <v>12050</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15:F38" si="0">E15/D15-1</f>
+        <v>0.24226804123711343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1120</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1590</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41964285714285721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="6">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1405</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1420</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.067615658362997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12">
+        <v>18500</v>
+      </c>
+      <c r="E18" s="12">
+        <v>16450</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.11081081081081079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12</v>
+      </c>
+      <c r="D19" s="12">
+        <v>9400</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9060</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.6170212765957444E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4965</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.5192307692307643E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12">
+        <v>12050</v>
+      </c>
+      <c r="E21" s="12">
+        <v>11900</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.2448132780082943E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12">
+        <v>73700</v>
+      </c>
+      <c r="E22" s="12">
+        <v>79200</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4626865671641784E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5670</v>
+      </c>
+      <c r="E23" s="12">
+        <v>5410</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.585537918871252E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="6">
+        <v>12</v>
+      </c>
+      <c r="D24" s="12">
+        <v>11950</v>
+      </c>
+      <c r="E24" s="12">
+        <v>12550</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0209205020920411E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="12">
+        <v>6470</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6720</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
+        <v>3.863987635239563E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="6">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12">
+        <v>6790</v>
+      </c>
+      <c r="E26" s="12">
+        <v>6140</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.5729013254786444E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12</v>
+      </c>
+      <c r="D27" s="12">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="12">
+        <v>23600</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.8387096774193505E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="6">
+        <v>12</v>
+      </c>
+      <c r="D28" s="12">
+        <v>9140</v>
+      </c>
+      <c r="E28" s="12">
+        <v>8450</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.5492341356673931E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="6">
+        <v>12</v>
+      </c>
+      <c r="D29" s="12">
+        <v>21900</v>
+      </c>
+      <c r="E29" s="12">
+        <v>22450</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5114155251141579E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="6">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2360</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1990</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.15677966101694918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3835</v>
+      </c>
+      <c r="E31" s="12">
+        <v>3350</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.12646675358539761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="6">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6604</v>
+      </c>
+      <c r="E32" s="12">
+        <v>7960</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20533010296789822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="6">
+        <v>12</v>
+      </c>
+      <c r="D33" s="12">
+        <v>3960</v>
+      </c>
+      <c r="E33" s="12">
+        <v>3845</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.9040404040404089E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="6">
+        <v>12</v>
+      </c>
+      <c r="D34" s="12">
+        <v>13300</v>
+      </c>
+      <c r="E34" s="12">
+        <v>14500</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>9.0225563909774431E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="6">
+        <v>12</v>
+      </c>
+      <c r="D35" s="12">
+        <v>12800</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10700</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.1640625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="6">
+        <v>12</v>
+      </c>
+      <c r="D36" s="12">
+        <v>11450</v>
+      </c>
+      <c r="E36" s="12">
+        <v>11050</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.4934497816593857E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="6">
+        <v>12</v>
+      </c>
+      <c r="D37" s="12">
+        <v>58200</v>
+      </c>
+      <c r="E37" s="12">
+        <v>49200</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.15463917525773196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="6">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12">
+        <v>14400</v>
+      </c>
+      <c r="E38" s="12">
+        <v>10300</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.28472222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="Quantiwise7G" display="     Refresh     "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGE(F14:F38)</f>
+        <v>2.8007449289480686E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(F14:F38,"&gt;=0")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(F14:F38,"&lt;0")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="13">
+        <f>MAX(F14:F38)</f>
+        <v>0.41964285714285721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="13">
+        <f>MIN(F14:F38)</f>
+        <v>-0.15463917525773196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>20170531</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20170831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2235000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2316000</v>
+      </c>
+      <c r="F14" s="13">
+        <f>E14/D14-1</f>
+        <v>3.6241610738255048E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12">
+        <v>9700</v>
+      </c>
+      <c r="E15" s="12">
+        <v>12050</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15:F38" si="0">E15/D15-1</f>
+        <v>0.24226804123711343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1120</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1590</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41964285714285721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="6">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12050</v>
+      </c>
+      <c r="E17" s="12">
+        <v>11900</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.2448132780082943E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5670</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5410</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.585537918871252E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12</v>
+      </c>
+      <c r="D19" s="12">
+        <v>9400</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9060</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.6170212765957444E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5060</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5280</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565188E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3960</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3845</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.9040404040404089E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3835</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3350</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.12646675358539761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12</v>
+      </c>
+      <c r="D23" s="12">
+        <v>16300</v>
+      </c>
+      <c r="E23" s="12">
+        <v>14700</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.8159509202453976E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="6">
+        <v>12</v>
+      </c>
+      <c r="D24" s="12">
+        <v>73700</v>
+      </c>
+      <c r="E24" s="12">
+        <v>79200</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4626865671641784E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="12">
+        <v>18500</v>
+      </c>
+      <c r="E25" s="12">
+        <v>16450</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.11081081081081079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="6">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12">
+        <v>21450</v>
+      </c>
+      <c r="E26" s="12">
+        <v>19700</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="0"/>
+        <v>-8.1585081585081598E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12</v>
+      </c>
+      <c r="D27" s="12">
+        <v>7680</v>
+      </c>
+      <c r="E27" s="12">
+        <v>8580</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1171875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="6">
+        <v>12</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3340</v>
+      </c>
+      <c r="E28" s="12">
+        <v>3910</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1706586826347305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="6">
+        <v>12</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2750</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2605</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>-5.2727272727272734E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="6">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12">
+        <v>13300</v>
+      </c>
+      <c r="E30" s="12">
+        <v>14500</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>9.0225563909774431E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15850</v>
+      </c>
+      <c r="E31" s="12">
+        <v>15950</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
+        <v>6.3091482649841879E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="6">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12">
+        <v>11450</v>
+      </c>
+      <c r="E32" s="12">
+        <v>11050</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.4934497816593857E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="6">
+        <v>12</v>
+      </c>
+      <c r="D33" s="12">
+        <v>58200</v>
+      </c>
+      <c r="E33" s="12">
+        <v>49200</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.15463917525773196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="6">
+        <v>12</v>
+      </c>
+      <c r="D34" s="12">
+        <v>24800</v>
+      </c>
+      <c r="E34" s="12">
+        <v>23600</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.8387096774193505E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="6">
+        <v>12</v>
+      </c>
+      <c r="D35" s="12">
+        <v>6604</v>
+      </c>
+      <c r="E35" s="12">
+        <v>7960</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20533010296789822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="6">
+        <v>12</v>
+      </c>
+      <c r="D36" s="12">
+        <v>11950</v>
+      </c>
+      <c r="E36" s="12">
+        <v>10950</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
+        <v>-8.3682008368200833E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="6">
+        <v>12</v>
+      </c>
+      <c r="D37" s="12">
+        <v>12900</v>
+      </c>
+      <c r="E37" s="12">
+        <v>14950</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1589147286821706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="6">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12">
+        <v>11950</v>
+      </c>
+      <c r="E38" s="12">
+        <v>12550</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0209205020920411E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="Quantiwise7G" display="     Refresh     "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -2937,11 +4759,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
